--- a/analysis/5.1/td_0.15s.xlsx
+++ b/analysis/5.1/td_0.15s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -102,18 +102,18 @@
         <v>10.1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.15000000000000002</v>
       </c>
       <c r="D2">
-        <v>322.17073999998979</v>
+        <v>452.11404000000374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
@@ -122,7 +122,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="D3">
-        <v>252.48436000000228</v>
+        <v>322.17073999998979</v>
       </c>
     </row>
     <row r="4">
@@ -130,41 +130,41 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.15000000000000002</v>
       </c>
       <c r="D4">
-        <v>305.01050000000248</v>
+        <v>388.48448000000337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B5">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5">
         <v>0.15000000000000002</v>
       </c>
       <c r="D5">
-        <v>273.74303999999955</v>
+        <v>252.48436000000228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C6">
         <v>0.15000000000000002</v>
       </c>
       <c r="D6">
-        <v>278.78839999999764</v>
+        <v>305.01050000000248</v>
       </c>
     </row>
     <row r="7">
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.15000000000000002</v>
       </c>
       <c r="D7">
-        <v>274.28276000000301</v>
+        <v>273.74303999999955</v>
       </c>
     </row>
     <row r="8">
@@ -186,41 +186,41 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.15000000000000002</v>
       </c>
       <c r="D8">
-        <v>277.82264000000191</v>
+        <v>278.78839999999764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.15000000000000002</v>
       </c>
       <c r="D9">
-        <v>256.71106666666367</v>
+        <v>274.28276000000301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.15000000000000002</v>
       </c>
       <c r="D10">
-        <v>285.9616000000002</v>
+        <v>277.82264000000191</v>
       </c>
     </row>
     <row r="11">
@@ -228,13 +228,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B11">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C11">
         <v>0.15000000000000002</v>
       </c>
       <c r="D11">
-        <v>278.82144000000028</v>
+        <v>256.71106666666367</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C12">
         <v>0.15000000000000002</v>
       </c>
       <c r="D12">
-        <v>192.89051111111121</v>
+        <v>285.9616000000002</v>
       </c>
     </row>
     <row r="13">
@@ -256,41 +256,41 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.15000000000000002</v>
       </c>
       <c r="D13">
-        <v>276.84120000000257</v>
+        <v>278.82144000000028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.15000000000000002</v>
       </c>
       <c r="D14">
-        <v>280.5204800000007</v>
+        <v>192.89051111111121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15">
         <v>0.15000000000000002</v>
       </c>
       <c r="D15">
-        <v>279.62035999999966</v>
+        <v>276.84120000000257</v>
       </c>
     </row>
     <row r="16">
@@ -298,13 +298,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B16">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C16">
         <v>0.15000000000000002</v>
       </c>
       <c r="D16">
-        <v>251.73250000000252</v>
+        <v>280.5204800000007</v>
       </c>
     </row>
     <row r="17">
@@ -312,13 +312,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B17">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C17">
         <v>0.15000000000000002</v>
       </c>
       <c r="D17">
-        <v>241.95615999999814</v>
+        <v>279.62035999999966</v>
       </c>
     </row>
     <row r="18">
@@ -326,41 +326,41 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C18">
         <v>0.15000000000000002</v>
       </c>
       <c r="D18">
-        <v>276.84000000000088</v>
+        <v>251.73250000000252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.15000000000000002</v>
       </c>
       <c r="D19">
-        <v>278.06727999999896</v>
+        <v>241.95615999999814</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C20">
         <v>0.15000000000000002</v>
       </c>
       <c r="D20">
-        <v>214.6463199999971</v>
+        <v>276.84000000000088</v>
       </c>
     </row>
     <row r="21">
@@ -368,13 +368,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B21">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C21">
         <v>0.15000000000000002</v>
       </c>
       <c r="D21">
-        <v>202.74845714285755</v>
+        <v>278.06727999999896</v>
       </c>
     </row>
     <row r="22">
@@ -382,13 +382,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B22">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C22">
         <v>0.15000000000000002</v>
       </c>
       <c r="D22">
-        <v>230.54940000000144</v>
+        <v>214.6463199999971</v>
       </c>
     </row>
     <row r="23">
@@ -396,41 +396,41 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B23">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C23">
         <v>0.15000000000000002</v>
       </c>
       <c r="D23">
-        <v>274.85884000000249</v>
+        <v>202.74845714285755</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C24">
         <v>0.15000000000000002</v>
       </c>
       <c r="D24">
-        <v>213.6443999999984</v>
+        <v>230.54940000000144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C25">
         <v>0.15000000000000002</v>
       </c>
       <c r="D25">
-        <v>212.59215999999995</v>
+        <v>274.85884000000249</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B26">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C26">
         <v>0.15000000000000002</v>
       </c>
       <c r="D26">
-        <v>195.65799999999956</v>
+        <v>213.6443999999984</v>
       </c>
     </row>
     <row r="27">
@@ -452,13 +452,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B27">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C27">
         <v>0.15000000000000002</v>
       </c>
       <c r="D27">
-        <v>219.66742222222132</v>
+        <v>212.59215999999995</v>
       </c>
     </row>
     <row r="28">
@@ -466,41 +466,41 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B28">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C28">
         <v>0.15000000000000002</v>
       </c>
       <c r="D28">
-        <v>219.65395555555705</v>
+        <v>195.65799999999956</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B29">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C29">
         <v>0.15000000000000002</v>
       </c>
       <c r="D29">
-        <v>210.61599999999703</v>
+        <v>219.66742222222132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B30">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C30">
         <v>0.15000000000000002</v>
       </c>
       <c r="D30">
-        <v>198.65380000000084</v>
+        <v>219.65395555555705</v>
       </c>
     </row>
     <row r="31">
@@ -508,13 +508,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B31">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C31">
         <v>0.15000000000000002</v>
       </c>
       <c r="D31">
-        <v>195.0450000000011</v>
+        <v>210.61599999999703</v>
       </c>
     </row>
     <row r="32">
@@ -522,13 +522,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B32">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0.15000000000000002</v>
       </c>
       <c r="D32">
-        <v>218.57315000000074</v>
+        <v>198.65380000000084</v>
       </c>
     </row>
     <row r="33">
@@ -536,41 +536,41 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B33">
-        <v>4.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C33">
         <v>0.15000000000000002</v>
       </c>
       <c r="D33">
-        <v>236.61466666666468</v>
+        <v>195.0450000000011</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B34">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C34">
         <v>0.15000000000000002</v>
       </c>
       <c r="D34">
-        <v>226.54339999999922</v>
+        <v>218.57315000000074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B35">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C35">
         <v>0.15000000000000002</v>
       </c>
       <c r="D35">
-        <v>211.71620000000098</v>
+        <v>236.61466666666468</v>
       </c>
     </row>
     <row r="36">
@@ -578,13 +578,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B36">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C36">
         <v>0.15000000000000002</v>
       </c>
       <c r="D36">
-        <v>194.57405999999941</v>
+        <v>226.54339999999922</v>
       </c>
     </row>
     <row r="37">
@@ -592,41 +592,41 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B37">
-        <v>3.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C37">
         <v>0.15000000000000002</v>
       </c>
       <c r="D37">
-        <v>194.57400000000112</v>
+        <v>211.71620000000098</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B38">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C38">
         <v>0.15000000000000002</v>
       </c>
       <c r="D38">
-        <v>198.77316923076862</v>
+        <v>194.57405999999941</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B39">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C39">
         <v>0.15000000000000002</v>
       </c>
       <c r="D39">
-        <v>198.72852307692401</v>
+        <v>194.57400000000112</v>
       </c>
     </row>
     <row r="40">
@@ -634,40 +634,68 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B40">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C40">
         <v>0.15000000000000002</v>
       </c>
       <c r="D40">
-        <v>194.02340000000183</v>
+        <v>198.77316923076862</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B41">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C41">
         <v>0.15000000000000002</v>
       </c>
       <c r="D41">
-        <v>197.79109090909037</v>
+        <v>198.72852307692401</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>100.09999999999999</v>
+      </c>
+      <c r="B42">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D42">
+        <v>194.02340000000183</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
         <v>110.09999999999999</v>
       </c>
-      <c r="B42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C42">
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="D42">
+      <c r="B43">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D43">
+        <v>197.79109090909037</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>110.09999999999999</v>
+      </c>
+      <c r="B44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D44">
         <v>209.56173333332981</v>
       </c>
     </row>
